--- a/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
+++ b/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\正祥問題討論\工作\Esds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\Docs\UpdateScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE59E9-54D7-403E-AB90-608748A3364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D87227-5A37-464D-B5CC-D472C1D71125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
+++ b/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\Docs\UpdateScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D87227-5A37-464D-B5CC-D472C1D71125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8BC87-74C2-4913-AAEA-FF42D0BDCED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,94 +39,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北區環境管理中心</t>
-  </si>
-  <si>
-    <t>北區環境管理中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chmuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jkchou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lmling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南區環境管理中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sajulin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weihung.hsu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wenchuan.kuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiawei.lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiahsiang.lee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ycchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jkliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hocchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chihming.lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hchchen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Declare @UserId AS Nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境管理署北區環境管理中心</t>
+  </si>
+  <si>
+    <t>環境管理署南區環境管理中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestThree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestThree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai.liu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuteng.huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mctsai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menghsun.tsai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkcheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sytsay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pllin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mehhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cytuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hungyi.lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hcli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWDEP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,8 +159,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,16 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -491,15 +469,15 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -518,8 +496,8 @@
 	Set AreaId = 1
 	Where UserId = @UserId
 End"</f>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'chchang'
-select @UserId = Id from [Users] where UserName = 'chchang'
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'TestThree1'
+select @UserId = Id from [Users] where UserName = 'TestThree1'
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
@@ -535,16 +513,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I20" si="0">"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A3 &amp; "'
+        <f>"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A3 &amp; "'
 select @UserId = Id from [Users] where UserName = '" &amp; A3 &amp; "'
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
@@ -557,93 +535,48 @@
 	Set AreaId = 1
 	Where UserId = @UserId
 End"</f>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'chmuchang'
-select @UserId = Id from [Users] where UserName = 'chmuchang'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
-End
-Else
-Begin
-	Update UserArea
-	Set AreaId = 1
-	Where UserId = @UserId
-End</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'hwchang'
-select @UserId = Id from [Users] where UserName = 'hwchang'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
-End
-Else
-Begin
-	Update UserArea
-	Set AreaId = 1
-	Where UserId = @UserId
-End</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'TestThree2'
+select @UserId = Id from [Users] where UserName = 'TestThree2'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 3
+End
+Else
+Begin
+	Update UserArea
+	Set AreaId = 1
+	Where UserId = @UserId
+End</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'jkchou'
-select @UserId = Id from [Users] where UserName = 'jkchou'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
-End
-Else
-Begin
-	Update UserArea
-	Set AreaId = 1
-	Where UserId = @UserId
-End</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'lmling'
-select @UserId = Id from [Users] where UserName = 'lmling'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 3
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A6 &amp; "'
+select @UserId = Id from [Users] where UserName = '" &amp; A6 &amp; "'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, " &amp; C6 &amp; "
+End
+Else
+Begin
+	Update UserArea
+	Set AreaId = 1
+	Where UserId = @UserId
+End"</f>
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'kai.liu'
+select @UserId = Id from [Users] where UserName = 'kai.liu'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -655,22 +588,31 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'sajulin'
-select @UserId = Id from [Users] where UserName = 'sajulin'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 3
+        <f t="shared" ref="I7:I18" si="0">"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A7 &amp; "'
+select @UserId = Id from [Users] where UserName = '" &amp; A7 &amp; "'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, " &amp; C7 &amp; "
+End
+Else
+Begin
+	Update UserArea
+	Set AreaId = 1
+	Where UserId = @UserId
+End"</f>
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'yuteng.huang'
+select @UserId = Id from [Users] where UserName = 'yuteng.huang'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -682,22 +624,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'weihung.hsu'
-select @UserId = Id from [Users] where UserName = 'weihung.hsu'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'mctsai'
+select @UserId = Id from [Users] where UserName = 'mctsai'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -709,22 +648,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'wenchuan.kuo'
-select @UserId = Id from [Users] where UserName = 'wenchuan.kuo'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'menghsun.tsai'
+select @UserId = Id from [Users] where UserName = 'menghsun.tsai'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -736,22 +672,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'Z092'
-select @UserId = Id from [Users] where UserName = 'Z092'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 't006'
+select @UserId = Id from [Users] where UserName = 't006'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -763,22 +696,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'Z118'
-select @UserId = Id from [Users] where UserName = 'Z118'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'tkcheng'
+select @UserId = Id from [Users] where UserName = 'tkcheng'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -790,22 +720,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'Z415'
-select @UserId = Id from [Users] where UserName = 'Z415'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'sytsay'
+select @UserId = Id from [Users] where UserName = 'sytsay'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -817,22 +744,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'chiawei.lin'
-select @UserId = Id from [Users] where UserName = 'chiawei.lin'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'pllin'
+select @UserId = Id from [Users] where UserName = 'pllin'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -844,22 +768,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'chiahsiang.lee'
-select @UserId = Id from [Users] where UserName = 'chiahsiang.lee'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'mehhuang'
+select @UserId = Id from [Users] where UserName = 'mehhuang'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -871,22 +792,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'ycchang'
-select @UserId = Id from [Users] where UserName = 'ycchang'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'cytuan'
+select @UserId = Id from [Users] where UserName = 'cytuan'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -898,22 +816,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'jkliang'
-select @UserId = Id from [Users] where UserName = 'jkliang'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'hungyi.lu'
+select @UserId = Id from [Users] where UserName = 'hungyi.lu'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -925,22 +840,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'hocchang'
-select @UserId = Id from [Users] where UserName = 'hocchang'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'hcli'
+select @UserId = Id from [Users] where UserName = 'hcli'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -952,76 +864,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'chihming.lin'
-select @UserId = Id from [Users] where UserName = 'chihming.lin'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
-End
-Else
-Begin
-	Update UserArea
-	Set AreaId = 1
-	Where UserId = @UserId
-End</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'hchchen'
-select @UserId = Id from [Users] where UserName = 'hchchen'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
-End
-Else
-Begin
-	Update UserArea
-	Set AreaId = 1
-	Where UserId = @UserId
-End</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>Update [Users] Set DutyId = 5 Where UserName = 'fangju'
-select @UserId = Id from [Users] where UserName = 'fangju'
-IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
-Begin	
-	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 1
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'TWDEP'
+select @UserId = Id from [Users] where UserName = 'TWDEP'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 
 End
 Else
 Begin
@@ -1034,5 +889,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
+++ b/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\Docs\UpdateScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8BC87-74C2-4913-AAEA-FF42D0BDCED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23C8F8-D5E4-4FC9-BC53-B6E1C74F3CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -557,6 +557,9 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
       <c r="I6" s="1" t="str">
         <f>"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A6 &amp; "'
 select @UserId = Id from [Users] where UserName = '" &amp; A6 &amp; "'
@@ -576,7 +579,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -593,6 +596,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="I7" t="str">
         <f t="shared" ref="I7:I18" si="0">"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A7 &amp; "'
 select @UserId = Id from [Users] where UserName = '" &amp; A7 &amp; "'
@@ -612,7 +618,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -629,6 +635,9 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'mctsai'
@@ -636,7 +645,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -653,6 +662,9 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'menghsun.tsai'
@@ -660,7 +672,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -677,6 +689,9 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 't006'
@@ -684,7 +699,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -701,6 +716,9 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'tkcheng'
@@ -708,7 +726,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -725,6 +743,9 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'sytsay'
@@ -732,7 +753,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -749,6 +770,9 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'pllin'
@@ -756,7 +780,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -773,6 +797,9 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'mehhuang'
@@ -780,7 +807,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -797,6 +824,9 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'cytuan'
@@ -804,7 +834,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -821,6 +851,9 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'hungyi.lu'
@@ -828,7 +861,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -845,6 +878,9 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'hcli'
@@ -852,7 +888,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin
@@ -869,6 +905,9 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'TWDEP'
@@ -876,7 +915,7 @@
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
-	Select @UserId, 
+	Select @UserId, 3
 End
 Else
 Begin

--- a/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
+++ b/MyEPA/Docs/UpdateScript/20250321_三區中心權限_公式.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\Docs\UpdateScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\淑俐\工作項目\114天災應變\系統精進功能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C23C8F8-D5E4-4FC9-BC53-B6E1C74F3CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,13 +106,17 @@
   </si>
   <si>
     <t>TWDEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sajulin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,20 +448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -511,7 +514,7 @@
 End</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -550,7 +553,7 @@
 End</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -589,7 +592,7 @@
 End</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -600,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I18" si="0">"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A7 &amp; "'
+        <f t="shared" ref="I7:I19" si="0">"Update [Users] Set DutyId = 5 Where UserName = '" &amp; A7 &amp; "'
 select @UserId = Id from [Users] where UserName = '" &amp; A7 &amp; "'
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
@@ -628,7 +631,7 @@
 End</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -655,7 +658,7 @@
 End</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -682,7 +685,7 @@
 End</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -709,7 +712,7 @@
 End</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -736,7 +739,7 @@
 End</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -763,7 +766,7 @@
 End</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -790,7 +793,7 @@
 End</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -817,7 +820,7 @@
 End</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -844,7 +847,7 @@
 End</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -871,7 +874,7 @@
 End</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -898,7 +901,7 @@
 End</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -912,6 +915,33 @@
         <f t="shared" si="0"/>
         <v>Update [Users] Set DutyId = 5 Where UserName = 'TWDEP'
 select @UserId = Id from [Users] where UserName = 'TWDEP'
+IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
+Begin	
+	Insert Into UserArea(UserId, AreaId)
+	Select @UserId, 3
+End
+Else
+Begin
+	Update UserArea
+	Set AreaId = 1
+	Where UserId = @UserId
+End</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>Update [Users] Set DutyId = 5 Where UserName = 'sajulin'
+select @UserId = Id from [Users] where UserName = 'sajulin'
 IF Not EXISTS ( select * from UserArea where UserId = @UserId ) 
 Begin	
 	Insert Into UserArea(UserId, AreaId)
